--- a/medicine/Enfance/Benjamin_Adam/Benjamin_Adam.xlsx
+++ b/medicine/Enfance/Benjamin_Adam/Benjamin_Adam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Benjamin Adam, né en 1983, est un auteur de bande dessinée et illustrateur jeunesse français. Il publie également sous le pseudonyme de Benjamin[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benjamin Adam, né en 1983, est un auteur de bande dessinée et illustrateur jeunesse français. Il publie également sous le pseudonyme de Benjamin.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômé de l’atelier d’illustration des Arts décoratifs de Strasbourg, il travaille régulièrement pour l'édition et la presse jeunesse (Actes Sud Junior, Okapi, Astrapi, Fleurus Éditions, Histoires pour les petits, Tchô…). Il a également participé au feuilleton en ligne Les Autres Gens scénarisé par Thomas Cadène.
-Il a publié en 2013 Lartigues &amp; Prévert, qui a reçu un accueil de la critique très favorable[2]. Cet album figure dans la sélection du Prix SNCF du polar[3] et a reçu la « Mention Spéciale du jury » de la sélection polar au Festival d'Angoulême 2014[4],[5].
-Dans le cinquième numéro de La Revue dessinée paru à l'automne 2014, il dessine une enquête menée avec Catherine Le Gall sur les emprunts toxiques. En 2015, les deux auteurs remportent le prix du meilleur article financier, catégorie « journalistes confirmés »[6], décerné par l'association Lire la société en partenariat avec la Banque de France et l'Association des journalistes économiques et financiers[7].
-En 2016, en lien avec le festival Normandiebulle, Benjamin Adam est en résidence dans le service addictologie au CHU de Bois-Guillaume[8]. Il y anime des ateliers, les travaux des participants sont exposés à la fin de la résidence avec les pages du journal que Benjamin Adam a tenu sur place[9],[10].
-Il coscénarise, avec Thomas Cadène, et dessine Soon, sorti à l'automne 2019[11],[12],[13],[14]. Réussite graphique, l'album  se déploie dans un futur où l'humanité doit faire face aux menaces suscitées par les dérèglements climatiques et les épidémies, il et résonne tout particulièrement, avec  la crise du covid19 qui suit sa sortie[15].
+Il a publié en 2013 Lartigues &amp; Prévert, qui a reçu un accueil de la critique très favorable. Cet album figure dans la sélection du Prix SNCF du polar et a reçu la « Mention Spéciale du jury » de la sélection polar au Festival d'Angoulême 2014,.
+Dans le cinquième numéro de La Revue dessinée paru à l'automne 2014, il dessine une enquête menée avec Catherine Le Gall sur les emprunts toxiques. En 2015, les deux auteurs remportent le prix du meilleur article financier, catégorie « journalistes confirmés », décerné par l'association Lire la société en partenariat avec la Banque de France et l'Association des journalistes économiques et financiers.
+En 2016, en lien avec le festival Normandiebulle, Benjamin Adam est en résidence dans le service addictologie au CHU de Bois-Guillaume. Il y anime des ateliers, les travaux des participants sont exposés à la fin de la résidence avec les pages du journal que Benjamin Adam a tenu sur place,.
+Il coscénarise, avec Thomas Cadène, et dessine Soon, sorti à l'automne 2019. Réussite graphique, l'album  se déploie dans un futur où l'humanité doit faire face aux menaces suscitées par les dérèglements climatiques et les épidémies, il et résonne tout particulièrement, avec  la crise du covid19 qui suit sa sortie.
 </t>
         </is>
       </c>
@@ -546,11 +560,13 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2014 : « Mention Spéciale du jury » du jury du Prix SNCF du polar au Festival d'Angoulême 2014[5]
-2014 : Prix du scénario pour Lartigues &amp; Prévert[16]
-2015 : Prix du meilleur article financier, catégorie « journalistes confirmés »[6]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2014 : « Mention Spéciale du jury » du jury du Prix SNCF du polar au Festival d'Angoulême 2014
+2014 : Prix du scénario pour Lartigues &amp; Prévert
+2015 : Prix du meilleur article financier, catégorie « journalistes confirmés »</t>
         </is>
       </c>
     </row>
@@ -580,20 +596,59 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bande dessinée
-Sous le pseudonyme de Benjamin[1]
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme de Benjamin
 12 rue des ablettes, Warum, 2007Scénario, dessin et couleurs : Benjamin Adam - (ISBN 978-2-915920-14-7)
-2 milligrammes, Troglodyte, 2008Scénario : Benjamin Adam[17] - Dessin et couleurs : Benjamin Adam - (ISBN 978-2-9526172-2-2)
+2 milligrammes, Troglodyte, 2008Scénario : Benjamin Adam - Dessin et couleurs : Benjamin Adam - (ISBN 978-2-9526172-2-2)
 Sous le nom de Benjamin Adam
 Ulysse, Bayard, BD Kids, 2011Scénario : Christine Palluy - Dessin et couleurs : Benjamin Adam - (ISBN 978-2-7459-5290-5)
 Lartigues &amp; Prévert, La Pastèque, 2013Scénario, dessin et couleurs : Benjamin Adam - (ISBN 978-2-923841-25-0)
 Les désobéisseurs, ouvrage collectif, Vide Cocagne, 2013Scénario et dessin : Benjamin Adam - (ISBN 979-1-09-042525-5)
 Joker, La Pastèque, 2015Scénario et dessin : Benjamin Adam - (ISBN 9782923841793), sélection officielle du Festival d'Angoulême 2016.
-Soon[18], Dargaud, 2019Scénario : Thomas Cadène, Benjamin Adam - Dessin : Benjamin Adam - (ISBN 9782205078749)
+Soon, Dargaud, 2019Scénario : Thomas Cadène, Benjamin Adam - Dessin : Benjamin Adam - (ISBN 9782205078749)
 UOS, éditions 2024, 2021Scénario et dessin : Benjamin Adam - (ISBN 978-2-901000-54-9)
-Capital et Idéologie, Éditions du Seuil, 2022Scénario : Claire Alet, d'après le livre de Thomas Piketty - Dessin : Benjamin Adam - (ISBN 978-2-02146-957-8)
-Illustration
-Sauf mention contraire, tous les ouvrages ci-dessous sont illustrés par Benjamin Adam.
+Capital et Idéologie, Éditions du Seuil, 2022Scénario : Claire Alet, d'après le livre de Thomas Piketty - Dessin : Benjamin Adam - (ISBN 978-2-02146-957-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Benjamin_Adam</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benjamin_Adam</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustration</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sauf mention contraire, tous les ouvrages ci-dessous sont illustrés par Benjamin Adam.
 140 jeux et des brouettes pour supporter les fêtes de fin d'année, Bernard Myers, illustrations de Benjamin Adam et de Lucile Gomez, Fleurus, 2008
  70 jeux et des brouettes pour supporter Noël en famille, Bernard Myers, illustrations de Benjamin Adam et de Lucile Gomez, Fleurus, 2008
  Les mystères, collectif Troglodyte, 2008
